--- a/05_Manuscript/results/3_factor edit.xlsx
+++ b/05_Manuscript/results/3_factor edit.xlsx
@@ -8,19 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/2_projects/00_not_used_while/Gen-Scale/05_Manuscript/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8A90D9-DD90-4948-BDF7-A31838F239EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1FBCB7-0C29-014B-B9E2-59DAC217A020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$49</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="115">
   <si>
     <t>ML2</t>
   </si>
@@ -335,6 +352,36 @@
   </si>
   <si>
     <t>match</t>
+  </si>
+  <si>
+    <t>Q4_10</t>
+  </si>
+  <si>
+    <t>Q5_18</t>
+  </si>
+  <si>
+    <t>dup</t>
+  </si>
+  <si>
+    <t>spiritual</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>biological</t>
+  </si>
+  <si>
+    <t>physical</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
 </sst>
 </file>
@@ -384,12 +431,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,15 +747,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView topLeftCell="B1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="32.83203125" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,14 +774,20 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0.78262951215658216</v>
       </c>
@@ -741,11 +803,22 @@
       <c r="E2" t="s">
         <v>84</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" t="str">
+        <f>VLOOKUP(E2,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H2" t="str">
+        <f>VLOOKUP(E2,Sheet2!A:C,3,FALSE)</f>
+        <v>social</v>
+      </c>
+      <c r="I2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0.75133419311414951</v>
       </c>
@@ -761,11 +834,22 @@
       <c r="E3" t="s">
         <v>90</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" t="str">
+        <f>VLOOKUP(E3,Sheet2!A:C,2,FALSE)</f>
+        <v>dup</v>
+      </c>
+      <c r="H3" t="str">
+        <f>VLOOKUP(E3,Sheet2!A:C,3,FALSE)</f>
+        <v>social</v>
+      </c>
+      <c r="I3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.74540995785817521</v>
       </c>
@@ -781,11 +865,22 @@
       <c r="E4" t="s">
         <v>94</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" t="e">
+        <f>VLOOKUP(E4,Sheet2!A:C,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H4" t="e">
+        <f>VLOOKUP(E4,Sheet2!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0.7397074072686407</v>
       </c>
@@ -801,11 +896,22 @@
       <c r="E5" t="s">
         <v>76</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" t="str">
+        <f>VLOOKUP(E5,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H5" t="str">
+        <f>VLOOKUP(E5,Sheet2!A:C,3,FALSE)</f>
+        <v>social</v>
+      </c>
+      <c r="I5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>0.73226692717349517</v>
       </c>
@@ -821,11 +927,22 @@
       <c r="E6" t="s">
         <v>80</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" t="str">
+        <f>VLOOKUP(E6,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H6" t="str">
+        <f>VLOOKUP(E6,Sheet2!A:C,3,FALSE)</f>
+        <v>personal</v>
+      </c>
+      <c r="I6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0.71275457687872068</v>
       </c>
@@ -841,11 +958,22 @@
       <c r="E7" t="s">
         <v>58</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" t="str">
+        <f>VLOOKUP(E7,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H7" t="str">
+        <f>VLOOKUP(E7,Sheet2!A:C,3,FALSE)</f>
+        <v>social</v>
+      </c>
+      <c r="I7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0.70365561674713062</v>
       </c>
@@ -861,11 +989,22 @@
       <c r="E8" t="s">
         <v>96</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" t="str">
+        <f>VLOOKUP(E8,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H8" t="str">
+        <f>VLOOKUP(E8,Sheet2!A:C,3,FALSE)</f>
+        <v>social</v>
+      </c>
+      <c r="I8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>0.69101857092937535</v>
       </c>
@@ -881,11 +1020,22 @@
       <c r="E9" t="s">
         <v>72</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" t="str">
+        <f>VLOOKUP(E9,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H9" t="str">
+        <f>VLOOKUP(E9,Sheet2!A:C,3,FALSE)</f>
+        <v>personal</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0.6879640238873882</v>
       </c>
@@ -901,11 +1051,22 @@
       <c r="E10" t="s">
         <v>62</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" t="e">
+        <f>VLOOKUP(E10,Sheet2!A:C,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H10" t="e">
+        <f>VLOOKUP(E10,Sheet2!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>0.68258519055118339</v>
       </c>
@@ -921,11 +1082,22 @@
       <c r="E11" t="s">
         <v>70</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" t="e">
+        <f>VLOOKUP(E11,Sheet2!A:C,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H11" t="e">
+        <f>VLOOKUP(E11,Sheet2!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>0.67595244892456496</v>
       </c>
@@ -941,11 +1113,22 @@
       <c r="E12" t="s">
         <v>68</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" t="str">
+        <f>VLOOKUP(E12,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H12" t="str">
+        <f>VLOOKUP(E12,Sheet2!A:C,3,FALSE)</f>
+        <v>personal</v>
+      </c>
+      <c r="I12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>0.67382746854778997</v>
       </c>
@@ -961,11 +1144,22 @@
       <c r="E13" t="s">
         <v>98</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" t="str">
+        <f>VLOOKUP(E13,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H13" t="str">
+        <f>VLOOKUP(E13,Sheet2!A:C,3,FALSE)</f>
+        <v>personal</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>0.6623618793382795</v>
       </c>
@@ -981,11 +1175,22 @@
       <c r="E14" t="s">
         <v>92</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" t="str">
+        <f>VLOOKUP(E14,Sheet2!A:C,2,FALSE)</f>
+        <v>dup</v>
+      </c>
+      <c r="H14" t="str">
+        <f>VLOOKUP(E14,Sheet2!A:C,3,FALSE)</f>
+        <v>social</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>0.64513825332755481</v>
       </c>
@@ -1001,11 +1206,22 @@
       <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" t="e">
+        <f>VLOOKUP(E15,Sheet2!A:C,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H15" t="e">
+        <f>VLOOKUP(E15,Sheet2!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>0.62819287127135637</v>
       </c>
@@ -1021,11 +1237,22 @@
       <c r="E16" t="s">
         <v>78</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="e">
+        <f>VLOOKUP(E16,Sheet2!A:C,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H16" t="e">
+        <f>VLOOKUP(E16,Sheet2!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>0.61026663257785807</v>
       </c>
@@ -1041,11 +1268,22 @@
       <c r="E17" t="s">
         <v>100</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="e">
+        <f>VLOOKUP(E17,Sheet2!A:C,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H17" t="e">
+        <f>VLOOKUP(E17,Sheet2!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>0.60745845577645574</v>
       </c>
@@ -1061,11 +1299,22 @@
       <c r="E18" t="s">
         <v>88</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="str">
+        <f>VLOOKUP(E18,Sheet2!A:C,2,FALSE)</f>
+        <v>no</v>
+      </c>
+      <c r="H18" t="str">
+        <f>VLOOKUP(E18,Sheet2!A:C,3,FALSE)</f>
+        <v>social</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>0.60149904679678712</v>
       </c>
@@ -1081,11 +1330,22 @@
       <c r="E19" t="s">
         <v>56</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="str">
+        <f>VLOOKUP(E19,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H19" t="str">
+        <f>VLOOKUP(E19,Sheet2!A:C,3,FALSE)</f>
+        <v>personal</v>
+      </c>
+      <c r="I19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>0.59802563701436684</v>
       </c>
@@ -1101,11 +1361,22 @@
       <c r="E20" t="s">
         <v>46</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="str">
+        <f>VLOOKUP(E20,Sheet2!A:C,2,FALSE)</f>
+        <v>no</v>
+      </c>
+      <c r="H20" t="str">
+        <f>VLOOKUP(E20,Sheet2!A:C,3,FALSE)</f>
+        <v>social</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0.55647121004245215</v>
       </c>
@@ -1121,11 +1392,22 @@
       <c r="E21" t="s">
         <v>36</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="e">
+        <f>VLOOKUP(E21,Sheet2!A:C,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H21" t="e">
+        <f>VLOOKUP(E21,Sheet2!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>0.53492454856486404</v>
       </c>
@@ -1141,11 +1423,22 @@
       <c r="E22" t="s">
         <v>52</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="e">
+        <f>VLOOKUP(E22,Sheet2!A:C,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H22" t="e">
+        <f>VLOOKUP(E22,Sheet2!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0.5308140348232574</v>
       </c>
@@ -1161,11 +1454,22 @@
       <c r="E23" t="s">
         <v>44</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="str">
+        <f>VLOOKUP(E23,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H23" t="str">
+        <f>VLOOKUP(E23,Sheet2!A:C,3,FALSE)</f>
+        <v>biological</v>
+      </c>
+      <c r="I23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>0.52921821595670815</v>
       </c>
@@ -1181,11 +1485,22 @@
       <c r="E24" t="s">
         <v>86</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="e">
+        <f>VLOOKUP(E24,Sheet2!A:C,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H24" t="e">
+        <f>VLOOKUP(E24,Sheet2!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>0.50713554326526833</v>
       </c>
@@ -1201,11 +1516,22 @@
       <c r="E25" t="s">
         <v>32</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="e">
+        <f>VLOOKUP(E25,Sheet2!A:C,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H25" t="e">
+        <f>VLOOKUP(E25,Sheet2!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>0.50002175230780366</v>
       </c>
@@ -1221,11 +1547,22 @@
       <c r="E26" t="s">
         <v>40</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="str">
+        <f>VLOOKUP(E26,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H26" t="str">
+        <f>VLOOKUP(E26,Sheet2!A:C,3,FALSE)</f>
+        <v>biological</v>
+      </c>
+      <c r="I26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0.48701626245834428</v>
       </c>
@@ -1241,11 +1578,22 @@
       <c r="E27" t="s">
         <v>34</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" t="e">
+        <f>VLOOKUP(E27,Sheet2!A:C,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H27" t="e">
+        <f>VLOOKUP(E27,Sheet2!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0.48262841843203058</v>
       </c>
@@ -1261,11 +1609,22 @@
       <c r="E28" t="s">
         <v>42</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" t="str">
+        <f>VLOOKUP(E28,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H28" t="str">
+        <f>VLOOKUP(E28,Sheet2!A:C,3,FALSE)</f>
+        <v>biological</v>
+      </c>
+      <c r="I28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>0.46420638711733753</v>
       </c>
@@ -1281,11 +1640,22 @@
       <c r="E29" t="s">
         <v>50</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="e">
+        <f>VLOOKUP(E29,Sheet2!A:C,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H29" t="e">
+        <f>VLOOKUP(E29,Sheet2!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>0.41348382134094652</v>
       </c>
@@ -1301,11 +1671,22 @@
       <c r="E30" t="s">
         <v>82</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="e">
+        <f>VLOOKUP(E30,Sheet2!A:C,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H30" t="e">
+        <f>VLOOKUP(E30,Sheet2!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>0.39118373176554511</v>
       </c>
@@ -1321,11 +1702,22 @@
       <c r="E31" t="s">
         <v>48</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" t="e">
+        <f>VLOOKUP(E31,Sheet2!A:C,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H31" t="e">
+        <f>VLOOKUP(E31,Sheet2!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-5.7902423821698558E-2</v>
       </c>
@@ -1341,11 +1733,22 @@
       <c r="E32" t="s">
         <v>7</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" t="str">
+        <f>VLOOKUP(E32,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H32" t="str">
+        <f>VLOOKUP(E32,Sheet2!A:C,3,FALSE)</f>
+        <v>spiritual</v>
+      </c>
+      <c r="I32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-3.2050411537051541E-3</v>
       </c>
@@ -1361,11 +1764,22 @@
       <c r="E33" t="s">
         <v>9</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="str">
+        <f>VLOOKUP(E33,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H33" t="str">
+        <f>VLOOKUP(E33,Sheet2!A:C,3,FALSE)</f>
+        <v>spiritual</v>
+      </c>
+      <c r="I33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-4.6459937430023461E-2</v>
       </c>
@@ -1381,11 +1795,22 @@
       <c r="E34" t="s">
         <v>11</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" t="str">
+        <f>VLOOKUP(E34,Sheet2!A:C,2,FALSE)</f>
+        <v>dup</v>
+      </c>
+      <c r="H34" t="str">
+        <f>VLOOKUP(E34,Sheet2!A:C,3,FALSE)</f>
+        <v>spiritual</v>
+      </c>
+      <c r="I34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3.1915877921277667E-2</v>
       </c>
@@ -1401,11 +1826,22 @@
       <c r="E35" t="s">
         <v>13</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" t="str">
+        <f>VLOOKUP(E35,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H35" t="str">
+        <f>VLOOKUP(E35,Sheet2!A:C,3,FALSE)</f>
+        <v>spiritual</v>
+      </c>
+      <c r="I35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-7.202300090870134E-2</v>
       </c>
@@ -1421,11 +1857,22 @@
       <c r="E36" t="s">
         <v>15</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" t="str">
+        <f>VLOOKUP(E36,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H36" t="str">
+        <f>VLOOKUP(E36,Sheet2!A:C,3,FALSE)</f>
+        <v>spiritual</v>
+      </c>
+      <c r="I36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>7.6007311247921344E-2</v>
       </c>
@@ -1441,11 +1888,22 @@
       <c r="E37" t="s">
         <v>17</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" t="str">
+        <f>VLOOKUP(E37,Sheet2!A:C,2,FALSE)</f>
+        <v>dup</v>
+      </c>
+      <c r="H37" t="str">
+        <f>VLOOKUP(E37,Sheet2!A:C,3,FALSE)</f>
+        <v>spiritual</v>
+      </c>
+      <c r="I37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.13562600979715411</v>
       </c>
@@ -1461,11 +1919,22 @@
       <c r="E38" t="s">
         <v>19</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" t="str">
+        <f>VLOOKUP(E38,Sheet2!A:C,2,FALSE)</f>
+        <v>dup</v>
+      </c>
+      <c r="H38" t="str">
+        <f>VLOOKUP(E38,Sheet2!A:C,3,FALSE)</f>
+        <v>spiritual</v>
+      </c>
+      <c r="I38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.16346632658307231</v>
       </c>
@@ -1481,11 +1950,22 @@
       <c r="E39" t="s">
         <v>21</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" t="str">
+        <f>VLOOKUP(E39,Sheet2!A:C,2,FALSE)</f>
+        <v>dup</v>
+      </c>
+      <c r="H39" t="str">
+        <f>VLOOKUP(E39,Sheet2!A:C,3,FALSE)</f>
+        <v>spiritual</v>
+      </c>
+      <c r="I39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>8.1555121455221549E-2</v>
       </c>
@@ -1501,11 +1981,22 @@
       <c r="E40" t="s">
         <v>23</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" t="e">
+        <f>VLOOKUP(E40,Sheet2!A:C,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H40" t="e">
+        <f>VLOOKUP(E40,Sheet2!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.20209175800226639</v>
       </c>
@@ -1521,11 +2012,22 @@
       <c r="E41" t="s">
         <v>25</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" t="str">
+        <f>VLOOKUP(E41,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H41" t="str">
+        <f>VLOOKUP(E41,Sheet2!A:C,3,FALSE)</f>
+        <v>spiritual</v>
+      </c>
+      <c r="I41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5.6377447844868422E-2</v>
       </c>
@@ -1541,11 +2043,22 @@
       <c r="E42" t="s">
         <v>28</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" t="e">
+        <f>VLOOKUP(E42,Sheet2!A:C,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H42" t="e">
+        <f>VLOOKUP(E42,Sheet2!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.2187196074556324</v>
       </c>
@@ -1561,11 +2074,22 @@
       <c r="E43" t="s">
         <v>30</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" t="str">
+        <f>VLOOKUP(E43,Sheet2!A:C,2,FALSE)</f>
+        <v>no</v>
+      </c>
+      <c r="H43" t="str">
+        <f>VLOOKUP(E43,Sheet2!A:C,3,FALSE)</f>
+        <v>spiritual</v>
+      </c>
+      <c r="I43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-4.8092192253682858E-2</v>
       </c>
@@ -1581,11 +2105,22 @@
       <c r="E44" t="s">
         <v>64</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" t="str">
+        <f>VLOOKUP(E44,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H44" t="str">
+        <f>VLOOKUP(E44,Sheet2!A:C,3,FALSE)</f>
+        <v>physical</v>
+      </c>
+      <c r="I44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>-6.1465117558064893E-2</v>
       </c>
@@ -1601,11 +2136,22 @@
       <c r="E45" t="s">
         <v>38</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" t="str">
+        <f>VLOOKUP(E45,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H45" t="str">
+        <f>VLOOKUP(E45,Sheet2!A:C,3,FALSE)</f>
+        <v>physical</v>
+      </c>
+      <c r="I45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-1.302923891954362E-2</v>
       </c>
@@ -1621,11 +2167,22 @@
       <c r="E46" t="s">
         <v>66</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" t="str">
+        <f>VLOOKUP(E46,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H46" t="str">
+        <f>VLOOKUP(E46,Sheet2!A:C,3,FALSE)</f>
+        <v>physical</v>
+      </c>
+      <c r="I46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.19146131624937771</v>
       </c>
@@ -1641,11 +2198,22 @@
       <c r="E47" t="s">
         <v>102</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" t="e">
+        <f>VLOOKUP(E47,Sheet2!A:C,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H47" t="e">
+        <f>VLOOKUP(E47,Sheet2!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1.9337654454468702E-2</v>
       </c>
@@ -1661,11 +2229,22 @@
       <c r="E48" t="s">
         <v>54</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" t="str">
+        <f>VLOOKUP(E48,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H48" t="str">
+        <f>VLOOKUP(E48,Sheet2!A:C,3,FALSE)</f>
+        <v>physical</v>
+      </c>
+      <c r="I48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.27004740356038143</v>
       </c>
@@ -1681,8 +2260,19 @@
       <c r="E49" t="s">
         <v>74</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="4" t="s">
         <v>75</v>
+      </c>
+      <c r="G49" t="str">
+        <f>VLOOKUP(E49,Sheet2!A:C,2,FALSE)</f>
+        <v>yes</v>
+      </c>
+      <c r="H49" t="str">
+        <f>VLOOKUP(E49,Sheet2!A:C,3,FALSE)</f>
+        <v>biological</v>
+      </c>
+      <c r="I49" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1691,4 +2281,393 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9291B0-CC36-2848-AE13-2941C2A44BC4}">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>